--- a/Integrated Project/Gauteng MMS/web/Reports/Monthly/Body File/2013-June Report - Body File - Open.xlsx
+++ b/Integrated Project/Gauteng MMS/web/Reports/Monthly/Body File/2013-June Report - Body File - Open.xlsx
@@ -353,7 +353,7 @@
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6" t="n" s="1">
-        <v>41435.46193575231</v>
+        <v>41439.324967962966</v>
       </c>
       <c r="R6"/>
       <c r="S6"/>
